--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_1999.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_1999.xlsx
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>17379.200000000001</t>
+          <t>17379.2</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>11150.940000000001</t>
+          <t>11150.94</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>24557.759999999998</t>
+          <t>24557.76</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>83.719999999999999</t>
+          <t>83.72</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>33.670000000000002</t>
+          <t>33.67</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>67.239999999999995</t>
+          <t>67.24</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>492.48000000000002</t>
+          <t>492.48</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>1817.3599999999999</t>
+          <t>1817.36</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>10680.790000000001</t>
+          <t>10680.79</t>
         </is>
       </c>
       <c r="E50" s="0" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>33.289999999999999</t>
+          <t>33.29</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>103.68000000000001</t>
+          <t>103.68</t>
         </is>
       </c>
       <c r="E55" s="0" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>1817.1099999999999</t>
+          <t>1817.11</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>4042.3499999999999</t>
+          <t>4042.35</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>237.66999999999999</t>
+          <t>237.67</t>
         </is>
       </c>
       <c r="E63" s="0" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>409840.85999999999</t>
+          <t>409840.86</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>4643.0200000000004</t>
+          <t>4643.02</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>2115.7399999999998</t>
+          <t>2115.74</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>5975.1800000000003</t>
+          <t>5975.18</t>
         </is>
       </c>
       <c r="E73" s="0" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>2778.4200000000001</t>
+          <t>2778.42</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>23644.470000000001</t>
+          <t>23644.47</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>6059.6700000000001</t>
+          <t>6059.67</t>
         </is>
       </c>
       <c r="E77" s="0" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>1544.1400000000001</t>
+          <t>1544.14</t>
         </is>
       </c>
       <c r="E80" s="0" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>335427.91999999998</t>
+          <t>335427.92</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>297.26999999999998</t>
+          <t>297.27</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>263994.09999999998</t>
+          <t>263994.1</t>
         </is>
       </c>
       <c r="E88" s="0" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>12366.870000000001</t>
+          <t>12366.87</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>8730.3899999999994</t>
+          <t>8730.39</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>45498.959999999999</t>
+          <t>45498.96</t>
         </is>
       </c>
       <c r="E94" s="0" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="D95" s="0" t="inlineStr">
         <is>
-          <t>1677.0599999999999</t>
+          <t>1677.06</t>
         </is>
       </c>
       <c r="E95" s="0" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>4.6799999999999997</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="E96" s="0" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>1209.9300000000001</t>
+          <t>1209.93</t>
         </is>
       </c>
       <c r="E97" s="0" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>22639.470000000001</t>
+          <t>22639.47</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>885.98000000000002</t>
+          <t>885.98</t>
         </is>
       </c>
       <c r="E102" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>3125.9400000000001</t>
+          <t>3125.94</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D104" s="0" t="inlineStr">
         <is>
-          <t>186.15000000000001</t>
+          <t>186.15</t>
         </is>
       </c>
       <c r="E104" s="0" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>877824.09999999998</t>
+          <t>877824.1</t>
         </is>
       </c>
       <c r="E112" s="0" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>990605.33999999997</t>
+          <t>990605.34</t>
         </is>
       </c>
       <c r="E114" s="0" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="D125" s="0" t="inlineStr">
         <is>
-          <t>7612.8000000000002</t>
+          <t>7612.8</t>
         </is>
       </c>
       <c r="E125" s="0" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="D126" s="0" t="inlineStr">
         <is>
-          <t>7339.0299999999997</t>
+          <t>7339.03</t>
         </is>
       </c>
       <c r="E126" s="0" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="D131" s="0" t="inlineStr">
         <is>
-          <t>877.17999999999995</t>
+          <t>877.18</t>
         </is>
       </c>
       <c r="E131" s="0" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="D134" s="0" t="inlineStr">
         <is>
-          <t>9353.7999999999993</t>
+          <t>9353.8</t>
         </is>
       </c>
       <c r="E134" s="0" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="D137" s="0" t="inlineStr">
         <is>
-          <t>850.99000000000001</t>
+          <t>850.99</t>
         </is>
       </c>
       <c r="E137" s="0" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D140" s="0" t="inlineStr">
         <is>
-          <t>257389.26999999999</t>
+          <t>257389.27</t>
         </is>
       </c>
       <c r="E140" s="0" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>3648.3899999999999</t>
+          <t>3648.39</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="D154" s="0" t="inlineStr">
         <is>
-          <t>17185.689999999999</t>
+          <t>17185.69</t>
         </is>
       </c>
       <c r="E154" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>894131.71999999997</t>
+          <t>894131.72</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D157" s="0" t="inlineStr">
         <is>
-          <t>100198.78999999999</t>
+          <t>100198.79</t>
         </is>
       </c>
       <c r="E157" s="0" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="D161" s="0" t="inlineStr">
         <is>
-          <t>6460.4300000000003</t>
+          <t>6460.43</t>
         </is>
       </c>
       <c r="E161" s="0" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>56946.419999999998</t>
+          <t>56946.42</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="D163" s="0" t="inlineStr">
         <is>
-          <t>13.720000000000001</t>
+          <t>13.72</t>
         </is>
       </c>
       <c r="E163" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>1070440.5900000001</t>
+          <t>1070440.59</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>43127.839999999997</t>
+          <t>43127.84</t>
         </is>
       </c>
       <c r="E167" s="0" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D168" s="0" t="inlineStr">
         <is>
-          <t>250963.54000000001</t>
+          <t>250963.54</t>
         </is>
       </c>
       <c r="E168" s="0" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D170" s="0" t="inlineStr">
         <is>
-          <t>95.609999999999999</t>
+          <t>95.61</t>
         </is>
       </c>
       <c r="E170" s="0" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D172" s="0" t="inlineStr">
         <is>
-          <t>8254.8899999999994</t>
+          <t>8254.89</t>
         </is>
       </c>
       <c r="E172" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D173" s="0" t="inlineStr">
         <is>
-          <t>126866.50999999999</t>
+          <t>126866.51</t>
         </is>
       </c>
       <c r="E173" s="0" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="D175" s="0" t="inlineStr">
         <is>
-          <t>98087.149999999994</t>
+          <t>98087.15</t>
         </is>
       </c>
       <c r="E175" s="0" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D176" s="0" t="inlineStr">
         <is>
-          <t>21113.599999999999</t>
+          <t>21113.6</t>
         </is>
       </c>
       <c r="E176" s="0" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="D177" s="0" t="inlineStr">
         <is>
-          <t>19293.380000000001</t>
+          <t>19293.38</t>
         </is>
       </c>
       <c r="E177" s="0" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="D178" s="0" t="inlineStr">
         <is>
-          <t>34.829999999999998</t>
+          <t>34.83</t>
         </is>
       </c>
       <c r="E178" s="0" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>57994.620000000003</t>
+          <t>57994.62</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t>18600.060000000001</t>
+          <t>18600.06</t>
         </is>
       </c>
       <c r="E181" s="0" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D182" s="0" t="inlineStr">
         <is>
-          <t>326487.65999999997</t>
+          <t>326487.66</t>
         </is>
       </c>
       <c r="E182" s="0" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t>3545.3299999999999</t>
+          <t>3545.33</t>
         </is>
       </c>
       <c r="E183" s="0" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>45246.019999999997</t>
+          <t>45246.02</t>
         </is>
       </c>
       <c r="E184" s="0" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>39.090000000000003</t>
+          <t>39.09</t>
         </is>
       </c>
       <c r="E187" s="0" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="D192" s="0" t="inlineStr">
         <is>
-          <t>143307.04000000001</t>
+          <t>143307.04</t>
         </is>
       </c>
       <c r="E192" s="0" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="D195" s="0" t="inlineStr">
         <is>
-          <t>215.53999999999999</t>
+          <t>215.54</t>
         </is>
       </c>
       <c r="E195" s="0" t="inlineStr">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="D196" s="0" t="inlineStr">
         <is>
-          <t>731.46000000000004</t>
+          <t>731.46</t>
         </is>
       </c>
       <c r="E196" s="0" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="D198" s="0" t="inlineStr">
         <is>
-          <t>2090.8499999999999</t>
+          <t>2090.85</t>
         </is>
       </c>
       <c r="E198" s="0" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="D199" s="0" t="inlineStr">
         <is>
-          <t>1035.0599999999999</t>
+          <t>1035.06</t>
         </is>
       </c>
       <c r="E199" s="0" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="D200" s="0" t="inlineStr">
         <is>
-          <t>2758.0500000000002</t>
+          <t>2758.05</t>
         </is>
       </c>
       <c r="E200" s="0" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="D201" s="0" t="inlineStr">
         <is>
-          <t>3259.0100000000002</t>
+          <t>3259.01</t>
         </is>
       </c>
       <c r="E201" s="0" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="D205" s="0" t="inlineStr">
         <is>
-          <t>200.21000000000001</t>
+          <t>200.21</t>
         </is>
       </c>
       <c r="E205" s="0" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="D211" s="0" t="inlineStr">
         <is>
-          <t>4409.6599999999999</t>
+          <t>4409.66</t>
         </is>
       </c>
       <c r="E211" s="0" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D216" s="0" t="inlineStr">
         <is>
-          <t>702.27999999999997</t>
+          <t>702.28</t>
         </is>
       </c>
       <c r="E216" s="0" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D218" s="0" t="inlineStr">
         <is>
-          <t>274387.46000000002</t>
+          <t>274387.46</t>
         </is>
       </c>
       <c r="E218" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D221" s="0" t="inlineStr">
         <is>
-          <t>367163.67999999999</t>
+          <t>367163.68</t>
         </is>
       </c>
       <c r="E221" s="0" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="D224" s="0" t="inlineStr">
         <is>
-          <t>6839.8299999999999</t>
+          <t>6839.83</t>
         </is>
       </c>
       <c r="E224" s="0" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="D234" s="0" t="inlineStr">
         <is>
-          <t>270793.41999999998</t>
+          <t>270793.42</t>
         </is>
       </c>
       <c r="E234" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>97564.589999999997</t>
+          <t>97564.59</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D238" s="0" t="inlineStr">
         <is>
-          <t>3369.3200000000002</t>
+          <t>3369.32</t>
         </is>
       </c>
       <c r="E238" s="0" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>21641.700000000001</t>
+          <t>21641.7</t>
         </is>
       </c>
       <c r="E244" s="0" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D250" s="0" t="inlineStr">
         <is>
-          <t>3216.5900000000001</t>
+          <t>3216.59</t>
         </is>
       </c>
       <c r="E250" s="0" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
-          <t>27450.549999999999</t>
+          <t>27450.55</t>
         </is>
       </c>
       <c r="E256" s="0" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="D265" s="0" t="inlineStr">
         <is>
-          <t>612.24000000000001</t>
+          <t>612.24</t>
         </is>
       </c>
       <c r="E265" s="0" t="inlineStr">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="D271" s="0" t="inlineStr">
         <is>
-          <t>9412.7199999999993</t>
+          <t>9412.72</t>
         </is>
       </c>
       <c r="E271" s="0" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="D272" s="0" t="inlineStr">
         <is>
-          <t>20863.389999999999</t>
+          <t>20863.39</t>
         </is>
       </c>
       <c r="E272" s="0" t="inlineStr">
@@ -8353,7 +8353,7 @@
       </c>
       <c r="D296" s="0" t="inlineStr">
         <is>
-          <t>5958.8100000000004</t>
+          <t>5958.81</t>
         </is>
       </c>
       <c r="E296" s="0" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t>444000.89000000001</t>
+          <t>444000.89</t>
         </is>
       </c>
       <c r="E297" s="0" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="D314" s="0" t="inlineStr">
         <is>
-          <t>8366.4500000000007</t>
+          <t>8366.45</t>
         </is>
       </c>
       <c r="E314" s="0" t="inlineStr">
@@ -9109,7 +9109,7 @@
       </c>
       <c r="D324" s="0" t="inlineStr">
         <is>
-          <t>95.109999999999999</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="E324" s="0" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D326" s="0" t="inlineStr">
         <is>
-          <t>1520399.3200000001</t>
+          <t>1520399.32</t>
         </is>
       </c>
       <c r="E326" s="0" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="D330" s="0" t="inlineStr">
         <is>
-          <t>4767075.4000000004</t>
+          <t>4767075.4</t>
         </is>
       </c>
       <c r="E330" s="0" t="inlineStr">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="D337" s="0" t="inlineStr">
         <is>
-          <t>7627.2200000000003</t>
+          <t>7627.22</t>
         </is>
       </c>
       <c r="E337" s="0" t="inlineStr">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="D346" s="0" t="inlineStr">
         <is>
-          <t>6.5499999999999998</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="E346" s="0" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="D348" s="0" t="inlineStr">
         <is>
-          <t>3629.9299999999998</t>
+          <t>3629.93</t>
         </is>
       </c>
       <c r="E348" s="0" t="inlineStr">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="D350" s="0" t="inlineStr">
         <is>
-          <t>5249.5299999999997</t>
+          <t>5249.53</t>
         </is>
       </c>
       <c r="E350" s="0" t="inlineStr">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="D359" s="0" t="inlineStr">
         <is>
-          <t>658.78999999999996</t>
+          <t>658.79</t>
         </is>
       </c>
       <c r="E359" s="0" t="inlineStr">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="D363" s="0" t="inlineStr">
         <is>
-          <t>22767.549999999999</t>
+          <t>22767.55</t>
         </is>
       </c>
       <c r="E363" s="0" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="D366" s="0" t="inlineStr">
         <is>
-          <t>9747.4099999999999</t>
+          <t>9747.41</t>
         </is>
       </c>
       <c r="E366" s="0" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="D367" s="0" t="inlineStr">
         <is>
-          <t>9237.5799999999999</t>
+          <t>9237.58</t>
         </is>
       </c>
       <c r="E367" s="0" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D370" s="0" t="inlineStr">
         <is>
-          <t>6521.8299999999999</t>
+          <t>6521.83</t>
         </is>
       </c>
       <c r="E370" s="0" t="inlineStr">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>18886.240000000002</t>
+          <t>18886.24</t>
         </is>
       </c>
       <c r="E373" s="0" t="inlineStr">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="D385" s="0" t="inlineStr">
         <is>
-          <t>2461.6300000000001</t>
+          <t>2461.63</t>
         </is>
       </c>
       <c r="E385" s="0" t="inlineStr">
@@ -12970,7 +12970,7 @@
       </c>
       <c r="D467" s="0" t="inlineStr">
         <is>
-          <t>1320.1199999999999</t>
+          <t>1320.12</t>
         </is>
       </c>
       <c r="E467" s="0" t="inlineStr">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="D470" s="0" t="inlineStr">
         <is>
-          <t>874.65999999999997</t>
+          <t>874.66</t>
         </is>
       </c>
       <c r="E470" s="0" t="inlineStr">
